--- a/Talleres/2. Titanic Dataset.xlsx
+++ b/Talleres/2. Titanic Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/Talleres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="14_{65B46787-DA9E-4CB5-9FAB-D2A791686F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390C2555-D6C8-4402-A08F-A6F3F7E8957E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="14_{65B46787-DA9E-4CB5-9FAB-D2A791686F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EFDC2C4-420B-411F-B81E-5A2D01108657}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD0FBD8D-BCD2-43B3-85D7-C8A4AB8A337F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="535">
   <si>
     <t>Name</t>
   </si>
@@ -1639,6 +1639,303 @@
   </si>
   <si>
     <t>https://www.kaggle.com/datasets/brendan45774/test-file?resource=download</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">🎓 Taller de Visualización y Análisis de Datos en Excel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Caso Titanic: Construcción de un Dashboard Interactivo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📝 Objetivo del Taller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Desarrollar un dashboard interactivo en Excel que permita analizar los datos del famoso caso del Titanic a través de indicadores clave, segmentaciones y visualizaciones dinámicas. El objetivo es que los estudiantes apliquen técnicas de análisis descriptivo, manejo de tablas dinámicas y gráficos avanzados para responder a preguntas de negocio, construir visualizaciones limpias y generar insights.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📁 Recursos Entregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Archivo Excel con los datos del Titanic (adaptado).
+- Enlace al dataset original de Kaggle (opcional).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✅ Entregables Esperados
+Dashboard completo en Excel con:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Filtros interactivos por:
+- Sexo (Hombre, Mujer)
+- Puerto de embarque (Cherbourg, Queenstown, Southampton)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indicadores clave con tarjetas (KPI):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Total de pasajeros
+- Edad promedio
+- Tasa de sobrevivientes (%)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gráficos dinámicos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Anillos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pasajeros por puerto de embarque
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Barras horizontales:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pasajeros por género
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Combo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recaudo total vs. ticket promedio por clase (Clase 1, Clase 2, Clase 3)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Histograma:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pasajeros por grupos de edad (crear bins de edad, como [0-16], [16-32], etc.)
+🔍</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Requisitos Técnicos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Uso obligatorio de tablas dinámicas para alimentar todos los gráficos.
+-Segmentadores (Slicers) para que los filtros de sexo y puerto de embarque apliquen a todos los elementos del dashboard.
+-Formato profesional y diseño limpio:
+-Colores coherentes
+-Etiquetas visibles y bien ubicadas
+-Tamaños adecuados en los títulos y cifras
+-Todas las métricas deben ajustarse automáticamente cuando se cambian los filtros.
+-El archivo debe permitir ser explorado por un usuario no técnico y entender fácilmente los resultados.
+💡 Preguntas para orientar el análisis
+¿Desde qué puerto embarcaron más pasajeros?
+¿Quiénes sobrevivieron más, hombres o mujeres?
+¿Qué clase aportó mayor ingreso al barco?
+¿Hay una relación entre edad y supervivencia?
+¿Cuál es el perfil más común del pasajero promedio (edad, clase, género, etc.)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🧑‍💻 Criterios de Evaluación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Exactitud de cálculos y filtros	| 30%
+Diseño visual y coherencia gráfica	 | 25%
+Interactividad del dashboard (segmentadores y vínculos)	| 20%
+Profundidad del análisis e insights generados	| 15%
+Creatividad y elementos adicionales implementados	| 10%
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1648,7 +1945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,6 +2084,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1974,7 +2279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2089,6 +2394,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2134,7 +2519,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2145,6 +2530,36 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3444,7 +3859,7 @@
       </c>
       <c r="J26" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s">
         <v>529</v>
@@ -4460,7 +4875,7 @@
       </c>
       <c r="J55" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
         <v>531</v>
@@ -4671,7 +5086,7 @@
       </c>
       <c r="J61" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K61" t="s">
         <v>529</v>
@@ -4847,7 +5262,7 @@
       </c>
       <c r="J66" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K66" t="s">
         <v>529</v>
@@ -5023,7 +5438,7 @@
       </c>
       <c r="J71" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s">
         <v>531</v>
@@ -5199,7 +5614,7 @@
       </c>
       <c r="J76" s="5">
         <f t="shared" ref="J76:J77" ca="1" si="0">RANDBETWEEN(20,61)</f>
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K76" t="s">
         <v>529</v>
@@ -5235,7 +5650,7 @@
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K77" t="s">
         <v>529</v>
@@ -5446,7 +5861,7 @@
       </c>
       <c r="J83" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
         <v>531</v>
@@ -6602,7 +7017,7 @@
       </c>
       <c r="J116" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K116" t="s">
         <v>531</v>
@@ -7548,7 +7963,7 @@
       </c>
       <c r="J143" s="5">
         <f t="shared" ref="J143:J144" ca="1" si="1">RANDBETWEEN(20,61)</f>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="K143" t="s">
         <v>531</v>
@@ -7584,7 +7999,7 @@
       </c>
       <c r="J144" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="K144" t="s">
         <v>529</v>
@@ -8072,7 +8487,7 @@
       </c>
       <c r="J158" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K158" t="s">
         <v>531</v>
@@ -8423,7 +8838,7 @@
       </c>
       <c r="J168" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K168" t="s">
         <v>529</v>
@@ -8494,7 +8909,7 @@
       </c>
       <c r="J170" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K170" t="s">
         <v>529</v>
@@ -8810,7 +9225,7 @@
       </c>
       <c r="J179" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K179" t="s">
         <v>529</v>
@@ -8881,7 +9296,7 @@
       </c>
       <c r="J181" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K181" t="s">
         <v>529</v>
@@ -8952,7 +9367,7 @@
       </c>
       <c r="J183" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K183" t="s">
         <v>529</v>
@@ -9058,7 +9473,7 @@
       </c>
       <c r="J186" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K186" t="s">
         <v>529</v>
@@ -9689,7 +10104,7 @@
       </c>
       <c r="J204" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K204" t="s">
         <v>529</v>
@@ -9795,7 +10210,7 @@
       </c>
       <c r="J207" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="K207" t="s">
         <v>529</v>
@@ -9901,7 +10316,7 @@
       </c>
       <c r="J210" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K210" t="s">
         <v>529</v>
@@ -10217,7 +10632,7 @@
       </c>
       <c r="J219" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K219" t="s">
         <v>531</v>
@@ -10253,7 +10668,7 @@
       </c>
       <c r="J220" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K220" t="s">
         <v>529</v>
@@ -10464,7 +10879,7 @@
       </c>
       <c r="J226" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K226" t="s">
         <v>529</v>
@@ -10815,7 +11230,7 @@
       </c>
       <c r="J236" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K236" t="s">
         <v>529</v>
@@ -10991,7 +11406,7 @@
       </c>
       <c r="J241" s="5">
         <f t="shared" ref="J241:J242" ca="1" si="2">RANDBETWEEN(20,61)</f>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="K241" t="s">
         <v>529</v>
@@ -11027,7 +11442,7 @@
       </c>
       <c r="J242" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K242" t="s">
         <v>529</v>
@@ -11203,7 +11618,7 @@
       </c>
       <c r="J247" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K247" t="s">
         <v>531</v>
@@ -11449,7 +11864,7 @@
       </c>
       <c r="J254" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K254" t="s">
         <v>529</v>
@@ -12080,7 +12495,7 @@
       </c>
       <c r="J272" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K272" t="s">
         <v>529</v>
@@ -12151,7 +12566,7 @@
       </c>
       <c r="J274" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K274" t="s">
         <v>529</v>
@@ -12677,7 +13092,7 @@
       </c>
       <c r="J289" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K289" t="s">
         <v>531</v>
@@ -12888,7 +13303,7 @@
       </c>
       <c r="J295" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K295" t="s">
         <v>531</v>
@@ -13624,7 +14039,7 @@
       </c>
       <c r="J316" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K316" t="s">
         <v>529</v>
@@ -13695,7 +14110,7 @@
       </c>
       <c r="J318" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K318" t="s">
         <v>529</v>
@@ -13976,7 +14391,7 @@
       </c>
       <c r="J326" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K326" t="s">
         <v>531</v>
@@ -14642,7 +15057,7 @@
       </c>
       <c r="J345" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K345" t="s">
         <v>529</v>
@@ -14888,7 +15303,7 @@
       </c>
       <c r="J352" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K352" t="s">
         <v>529</v>
@@ -15099,7 +15514,7 @@
       </c>
       <c r="J358" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K358" t="s">
         <v>531</v>
@@ -15380,7 +15795,7 @@
       </c>
       <c r="J366" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K366" t="s">
         <v>529</v>
@@ -15731,7 +16146,7 @@
       </c>
       <c r="J376" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K376" t="s">
         <v>531</v>
@@ -15767,7 +16182,7 @@
       </c>
       <c r="J377" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K377" t="s">
         <v>529</v>
@@ -16643,7 +17058,7 @@
       </c>
       <c r="J402" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K402" t="s">
         <v>531</v>
@@ -16784,7 +17199,7 @@
       </c>
       <c r="J406" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K406" t="s">
         <v>529</v>
@@ -16890,7 +17305,7 @@
       </c>
       <c r="J409" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K409" t="s">
         <v>529</v>
@@ -17253,18 +17668,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3AB2C2-0C83-4ECE-9FB2-33C78E73348C}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:K92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>532</v>
       </c>
@@ -17272,7 +17688,1068 @@
         <v>533</v>
       </c>
     </row>
+    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="15"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:K62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Talleres/2. Titanic Dataset.xlsx
+++ b/Talleres/2. Titanic Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/Talleres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="14_{65B46787-DA9E-4CB5-9FAB-D2A791686F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EFDC2C4-420B-411F-B81E-5A2D01108657}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="14_{65B46787-DA9E-4CB5-9FAB-D2A791686F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EAE1CF0-9302-40C3-9753-E784964BAC25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD0FBD8D-BCD2-43B3-85D7-C8A4AB8A337F}"/>
   </bookViews>
@@ -1934,7 +1934,29 @@
 Interactividad del dashboard (segmentadores y vínculos)	| 20%
 Profundidad del análisis e insights generados	| 15%
 Creatividad y elementos adicionales implementados	| 10%
-</t>
+🎁 BONUS: Comparte tu trabajo y gana una beca completa en Power BI
+¿Quieres seguir aprendiendo más allá del taller? ¡Esta es tu oportunidad!
+Si publicas en LinkedIn tu dashboard final del caso Titanic realizado en el taller, podrás participar por ganar una beca con acceso completo a 3 cursos virtuales de Power BI (Básico, Intermedio y Avanzado), diseñados y dictados por mí.
+📣 ¿Cómo participar?
+Publica en tu perfil de LinkedIn un video corto mostrando tu dashboard final del taller.
+Comparte un breve texto explicando qué aprendiste o qué fue lo más valioso del ejercicio.
+Etiqueta a:
+La Universidad de Bogotá Jorge Tadeo Lozano:  @Universidad Jorge Tadeo Lozano
+A mí como docente: @Elkin Rodriguez Escamilla
+📅 Fecha límite para publicar: 29 de mayo del 2025
+✅ Importante: Para validar tu participación, asegúrate de que tu publicación sea pública y que tenga las etiquetas correctas.
+🗳️ Selección del ganador
+Será una dinámica colaborativa:
+Haremos una encuesta interna entre los participantes del taller.
+Cada estudiante votará por el trabajo que considere más completo y visualmente atractivo (no se puede votar por uno mismo).
+La votación se basará en los mismos criterios de evaluación del taller:
+Criterio	Peso
+Diseño visual y coherencia gráfica| 25%
+Interactividad del dashboard | 20%
+Profundidad del análisis | 15%
+Creatividad y extras | 10%
+🏆 Premio
+Los tres estudiantes con mayor puntuación recibirán acceso gratuito a los tres cursos virtuales de Power BI, valorados por su contenido práctico y aplicado al mundo real.</t>
     </r>
   </si>
 </sst>
@@ -2519,7 +2541,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2530,16 +2552,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2558,6 +2574,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3859,7 +3878,7 @@
       </c>
       <c r="J26" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
         <v>529</v>
@@ -4875,7 +4894,7 @@
       </c>
       <c r="J55" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s">
         <v>531</v>
@@ -5086,7 +5105,7 @@
       </c>
       <c r="J61" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s">
         <v>529</v>
@@ -5262,7 +5281,7 @@
       </c>
       <c r="J66" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K66" t="s">
         <v>529</v>
@@ -5438,7 +5457,7 @@
       </c>
       <c r="J71" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K71" t="s">
         <v>531</v>
@@ -5614,7 +5633,7 @@
       </c>
       <c r="J76" s="5">
         <f t="shared" ref="J76:J77" ca="1" si="0">RANDBETWEEN(20,61)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K76" t="s">
         <v>529</v>
@@ -5650,7 +5669,7 @@
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K77" t="s">
         <v>529</v>
@@ -5861,7 +5880,7 @@
       </c>
       <c r="J83" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K83" t="s">
         <v>531</v>
@@ -7017,7 +7036,7 @@
       </c>
       <c r="J116" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K116" t="s">
         <v>531</v>
@@ -7963,7 +7982,7 @@
       </c>
       <c r="J143" s="5">
         <f t="shared" ref="J143:J144" ca="1" si="1">RANDBETWEEN(20,61)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K143" t="s">
         <v>531</v>
@@ -7999,7 +8018,7 @@
       </c>
       <c r="J144" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K144" t="s">
         <v>529</v>
@@ -8487,7 +8506,7 @@
       </c>
       <c r="J158" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K158" t="s">
         <v>531</v>
@@ -8838,7 +8857,7 @@
       </c>
       <c r="J168" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K168" t="s">
         <v>529</v>
@@ -9225,7 +9244,7 @@
       </c>
       <c r="J179" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K179" t="s">
         <v>529</v>
@@ -9296,7 +9315,7 @@
       </c>
       <c r="J181" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K181" t="s">
         <v>529</v>
@@ -9367,7 +9386,7 @@
       </c>
       <c r="J183" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K183" t="s">
         <v>529</v>
@@ -9473,7 +9492,7 @@
       </c>
       <c r="J186" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K186" t="s">
         <v>529</v>
@@ -10104,7 +10123,7 @@
       </c>
       <c r="J204" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K204" t="s">
         <v>529</v>
@@ -10210,7 +10229,7 @@
       </c>
       <c r="J207" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K207" t="s">
         <v>529</v>
@@ -10316,7 +10335,7 @@
       </c>
       <c r="J210" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K210" t="s">
         <v>529</v>
@@ -10632,7 +10651,7 @@
       </c>
       <c r="J219" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K219" t="s">
         <v>531</v>
@@ -10668,7 +10687,7 @@
       </c>
       <c r="J220" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K220" t="s">
         <v>529</v>
@@ -10879,7 +10898,7 @@
       </c>
       <c r="J226" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K226" t="s">
         <v>529</v>
@@ -11230,7 +11249,7 @@
       </c>
       <c r="J236" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K236" t="s">
         <v>529</v>
@@ -11406,7 +11425,7 @@
       </c>
       <c r="J241" s="5">
         <f t="shared" ref="J241:J242" ca="1" si="2">RANDBETWEEN(20,61)</f>
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="K241" t="s">
         <v>529</v>
@@ -11442,7 +11461,7 @@
       </c>
       <c r="J242" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K242" t="s">
         <v>529</v>
@@ -11618,7 +11637,7 @@
       </c>
       <c r="J247" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K247" t="s">
         <v>531</v>
@@ -11864,7 +11883,7 @@
       </c>
       <c r="J254" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K254" t="s">
         <v>529</v>
@@ -12495,7 +12514,7 @@
       </c>
       <c r="J272" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K272" t="s">
         <v>529</v>
@@ -12566,7 +12585,7 @@
       </c>
       <c r="J274" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K274" t="s">
         <v>529</v>
@@ -13092,7 +13111,7 @@
       </c>
       <c r="J289" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K289" t="s">
         <v>531</v>
@@ -13303,7 +13322,7 @@
       </c>
       <c r="J295" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K295" t="s">
         <v>531</v>
@@ -14039,7 +14058,7 @@
       </c>
       <c r="J316" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K316" t="s">
         <v>529</v>
@@ -14110,7 +14129,7 @@
       </c>
       <c r="J318" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K318" t="s">
         <v>529</v>
@@ -14391,7 +14410,7 @@
       </c>
       <c r="J326" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K326" t="s">
         <v>531</v>
@@ -15057,7 +15076,7 @@
       </c>
       <c r="J345" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K345" t="s">
         <v>529</v>
@@ -15303,7 +15322,7 @@
       </c>
       <c r="J352" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K352" t="s">
         <v>529</v>
@@ -15514,7 +15533,7 @@
       </c>
       <c r="J358" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K358" t="s">
         <v>531</v>
@@ -16146,7 +16165,7 @@
       </c>
       <c r="J376" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K376" t="s">
         <v>531</v>
@@ -16182,7 +16201,7 @@
       </c>
       <c r="J377" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="K377" t="s">
         <v>529</v>
@@ -17058,7 +17077,7 @@
       </c>
       <c r="J402" s="1">
         <f ca="1">RANDBETWEEN(20,37)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K402" t="s">
         <v>531</v>
@@ -17199,7 +17218,7 @@
       </c>
       <c r="J406" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K406" t="s">
         <v>529</v>
@@ -17305,7 +17324,7 @@
       </c>
       <c r="J409" s="5">
         <f ca="1">RANDBETWEEN(20,61)</f>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="K409" t="s">
         <v>529</v>
@@ -17668,10 +17687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3AB2C2-0C83-4ECE-9FB2-33C78E73348C}">
-  <dimension ref="B2:K92"/>
+  <dimension ref="B2:K141"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17689,693 +17708,693 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="12"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="12"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="12"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="12"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="12"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="12"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="12"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="12"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="12"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="12"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="12"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="12"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="12"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="12"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="12"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="10"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="12"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="12"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="11"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="12"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="12"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="12"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="10"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="12"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="12"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="13"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -18384,371 +18403,959 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="15"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="10"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="10"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="10"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="10"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="10"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="10"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="10"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="10"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="10"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="10"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="10"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="9"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="9"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="9"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="10"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="10"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="9"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="10"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="9"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="10"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="9"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="10"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="9"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="10"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="9"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="10"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="9"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="10"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="9"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="9"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="9"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="10"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="9"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="10"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="10"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="9"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="10"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="9"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="9"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="10"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="10"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="10"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="9"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="10"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="9"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="10"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="9"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="10"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="9"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="10"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="10"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="10"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="10"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="10"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="9"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="10"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="9"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="10"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="9"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="10"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="9"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="10"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="9"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="10"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="9"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="10"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="9"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="10"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="9"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="10"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="9"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="10"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="9"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="10"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="9"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="10"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="9"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="10"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="9"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="10"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="9"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="9"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="10"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="9"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="10"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="9"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="10"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="9"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="10"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="11"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:K62"/>
+    <mergeCell ref="B5:K141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
